--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,14 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +773,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +820,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,37 +890,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>200</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +980,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1094,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1137,14 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1168,11 +1235,11 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1250,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,29 +1265,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,17 +1317,17 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1265,38 +1344,44 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1391,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1485,44 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1532,44 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1660,11 +1799,11 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,38 +1814,44 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1908,44 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +2049,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,19 +2092,25 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3">
+        <v>800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1945,11 +2124,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1960,8 +2139,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2186,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2233,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2057,16 +2254,16 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2083,32 +2280,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,31 +2327,37 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2165,8 +2374,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2185,11 +2400,11 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2206,8 +2421,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2562,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2343,11 +2582,11 @@
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2355,11 +2594,11 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2656,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,31 +2745,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2788,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,8 +2835,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,22 +2856,22 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2609,31 +2882,37 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2929,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,8 +2976,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,31 +3164,37 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3418,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3606,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3752,44 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3822,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,11 +3850,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,8 +4100,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3682,29 +4115,29 @@
         <v>-1600</v>
       </c>
       <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +4170,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,20 +4307,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3880,11 +4339,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4561,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4655,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,40 +905,41 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>200</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,32 +1182,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1241,8 +1275,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,32 +1302,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,14 +1363,14 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1805,8 +1875,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,22 +2185,25 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>800</v>
       </c>
       <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -2130,8 +2220,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2335,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2260,13 +2359,13 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,17 +2435,20 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2359,8 +2464,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2380,8 +2485,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2406,8 +2514,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,13 +2685,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>200</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2588,8 +2708,8 @@
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2600,8 +2720,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,34 +2877,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,13 +2975,16 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2862,19 +2999,19 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2888,34 +3025,37 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,34 +3325,37 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,8 +4055,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,23 +4540,26 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4345,8 +4575,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,29 +4810,32 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>4200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4597,11 +4843,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,43 +919,44 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="N12" s="3">
+        <v>200</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,35 +1212,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-600</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,8 +1312,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,35 +1339,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
       <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,14 +1406,14 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1878,8 +1948,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-600</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-600</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,25 +2275,28 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>800</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2223,8 +2313,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2238,8 +2328,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,8 +2434,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2362,13 +2461,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>7000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2447,11 +2552,11 @@
         <v>400</v>
       </c>
       <c r="E47" s="3">
+        <v>400</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,8 +2572,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2488,8 +2593,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2517,8 +2625,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,16 +2805,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
+      <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2711,8 +2831,8 @@
       <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2723,8 +2843,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,37 +3008,38 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,17 +3112,20 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -3002,19 +3139,19 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3028,8 +3165,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3037,28 +3177,28 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,8 +3483,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3337,28 +3495,28 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-600</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4058,8 +4257,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,26 +4770,29 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4578,8 +4808,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,32 +5056,35 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4846,11 +5092,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,31 +5109,34 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +740,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,46 +932,47 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+      <c r="O12" s="3">
+        <v>200</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1229,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,38 +1241,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,8 +1348,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1330,8 +1363,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,38 +1375,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
       </c>
       <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,40 +1419,43 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1436,47 +1475,50 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-600</v>
       </c>
       <c r="M23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-600</v>
       </c>
       <c r="M26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-600</v>
       </c>
       <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,8 +2020,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1966,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-600</v>
       </c>
       <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-600</v>
       </c>
       <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2310,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,28 +2364,31 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E42" s="3">
         <v>1300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>800</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2316,8 +2405,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2331,8 +2420,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,8 +2532,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2464,13 +2562,13 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2490,41 +2588,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,23 +2644,26 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E47" s="3">
         <v>400</v>
       </c>
       <c r="F47" s="3">
+        <v>400</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2679,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2596,8 +2700,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2628,8 +2735,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2649,8 +2756,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,19 +2924,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2834,8 +2953,8 @@
       <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>200</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2846,8 +2965,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,40 +3138,41 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -3062,8 +3192,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,20 +3248,23 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -3142,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3168,40 +3304,43 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -3221,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,31 +3416,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,8 +3640,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,28 +3655,28 @@
         <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-600</v>
       </c>
       <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,8 +4458,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4833,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,29 +4999,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4811,8 +5040,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,8 +5301,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5068,26 +5313,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5095,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,16 +5357,19 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -5138,8 +5386,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +744,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +803,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,49 +946,50 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
+      <c r="P12" s="3">
+        <v>200</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,8 +1259,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,41 +1271,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1351,8 +1385,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1366,8 +1400,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1375,41 +1412,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,17 +1488,17 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
       </c>
       <c r="M23" s="3">
         <v>-600</v>
       </c>
       <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
       </c>
       <c r="M26" s="3">
         <v>-600</v>
       </c>
       <c r="N26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-600</v>
       </c>
       <c r="M27" s="3">
         <v>-600</v>
       </c>
       <c r="N27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2023,8 +2093,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-600</v>
       </c>
       <c r="M33" s="3">
         <v>-600</v>
       </c>
       <c r="N33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-600</v>
       </c>
       <c r="M35" s="3">
         <v>-600</v>
       </c>
       <c r="N35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,44 +2397,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,31 +2454,34 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E42" s="3">
         <v>2100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>800</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="J42" s="3">
+        <v>800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2408,8 +2498,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2423,8 +2513,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,13 +2631,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2565,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2591,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2656,17 +2761,17 @@
         <v>500</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
       </c>
       <c r="G47" s="3">
+        <v>400</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2682,8 +2787,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2703,13 +2808,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2738,8 +2846,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2759,8 +2867,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,22 +3044,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2956,8 +3076,8 @@
       <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2968,8 +3088,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,43 +3269,44 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -3195,8 +3326,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3251,8 +3385,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3260,14 +3397,14 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -3281,19 +3418,19 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3307,43 +3444,46 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -3363,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3419,16 +3562,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -3445,8 +3591,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,13 +3798,16 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
@@ -3658,28 +3816,28 @@
         <v>600</v>
       </c>
       <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-600</v>
       </c>
       <c r="M81" s="3">
         <v>-600</v>
       </c>
       <c r="N81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,8 +4660,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,8 +5054,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,32 +5229,35 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5043,8 +5273,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,38 +5547,41 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>18400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5343,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5371,8 +5620,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -5389,8 +5638,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +748,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,52 +960,53 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
+      <c r="Q12" s="3">
+        <v>200</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1289,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,44 +1301,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
       </c>
       <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1388,8 +1422,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1403,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1412,44 +1449,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,17 +1531,17 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-600</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2096,8 +2166,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-600</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-600</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,47 +2484,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,34 +2544,37 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>800</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
@@ -2501,8 +2591,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2516,8 +2606,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,16 +2730,19 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2667,13 +2766,13 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2693,47 +2792,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E46" s="3">
         <v>20500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,17 +2869,17 @@
         <v>500</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
       </c>
       <c r="H47" s="3">
+        <v>400</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,8 +2895,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2811,16 +2916,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2849,8 +2957,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2870,8 +2978,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,25 +3164,28 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3079,8 +3199,8 @@
       <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -3091,8 +3211,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,47 +3288,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,46 +3400,47 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3460,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3388,26 +3522,29 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -3421,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3447,46 +3584,49 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3565,19 +3708,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -3594,8 +3740,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,16 +3956,19 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -3819,28 +3977,28 @@
         <v>600</v>
       </c>
       <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,47 +4290,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,47 +4538,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
         <v>19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-600</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4663,8 +4862,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,53 +5187,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,35 +5459,38 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5276,8 +5506,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,41 +5793,44 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>18400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5592,11 +5838,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5623,8 +5872,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -5641,8 +5890,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>16700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,8 +752,11 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,55 +974,56 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
+      <c r="R12" s="3">
+        <v>200</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1319,11 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,47 +1331,47 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1425,8 +1459,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1440,8 +1474,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,47 +1486,47 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-600</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
       <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,17 +1574,17 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1604,11 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1573,47 +1616,47 @@
         <v>-3300</v>
       </c>
       <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-600</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,8 +1799,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1759,47 +1811,47 @@
         <v>-3300</v>
       </c>
       <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-600</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1864,11 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1821,47 +1876,47 @@
         <v>-3300</v>
       </c>
       <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2169,8 +2239,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2184,8 +2254,11 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2193,47 +2266,47 @@
         <v>-3300</v>
       </c>
       <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,8 +2384,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2317,47 +2396,47 @@
         <v>-3300</v>
       </c>
       <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,50 +2571,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
         <v>15900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,37 +2634,40 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
-      </c>
-      <c r="J42" s="3">
-        <v>800</v>
       </c>
       <c r="K42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>800</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2594,8 +2684,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2609,31 +2699,34 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,19 +2829,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2769,13 +2868,13 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2795,50 +2894,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>17600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,13 +2959,16 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
@@ -2872,17 +2977,17 @@
         <v>500</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
       </c>
       <c r="I47" s="3">
+        <v>400</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3003,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2919,8 +3024,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,8 +3038,8 @@
       <c r="E48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2960,8 +3068,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2981,8 +3089,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,8 +3284,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,17 +3298,17 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3202,8 +3322,8 @@
       <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>200</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -3214,8 +3334,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,50 +3414,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E54" s="3">
         <v>18000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,49 +3531,50 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3525,29 +3659,32 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3561,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3587,49 +3724,52 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,8 +3854,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3720,13 +3866,13 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -3743,8 +3889,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,19 +4114,22 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
@@ -3980,28 +4138,28 @@
         <v>600</v>
       </c>
       <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>0</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,50 +4464,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,50 +4724,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,8 +4924,11 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4741,47 +4936,47 @@
         <v>-3300</v>
       </c>
       <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4865,8 +5064,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,56 +5404,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,8 +5496,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,38 +5689,41 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5509,8 +5739,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,8 +6039,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5805,35 +6051,35 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>18400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5841,11 +6087,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5875,8 +6124,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -5893,8 +6142,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,88 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,8 +756,14 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,8 +827,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +898,14 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +969,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,61 +1000,63 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L12" s="3">
+        <v>700</v>
+      </c>
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
+      <c r="T12" s="3">
+        <v>200</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
@@ -1040,8 +1067,14 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1138,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1209,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1280,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,62 +1308,64 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1375,14 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1331,53 +1390,53 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1446,14 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1477,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1462,11 +1529,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1477,8 +1544,14 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,53 +1559,53 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1615,14 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,20 +1656,20 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1607,62 +1686,68 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1757,14 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1737,8 +1828,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,62 +1899,68 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,62 +1970,68 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +2041,14 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2112,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2183,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2254,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,8 +2325,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2207,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2242,11 +2381,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2257,62 +2396,68 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2467,14 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,62 +2538,68 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,67 +2609,73 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2685,14 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2716,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,56 +2743,58 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F41" s="3">
         <v>12400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,44 +2810,50 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,11 +2866,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2702,19 +2881,25 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -2728,11 +2913,11 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2767,8 +2952,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,25 +3023,31 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2871,16 +3068,16 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2897,56 +3094,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>20500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3165,14 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2971,29 +3180,29 @@
         <v>400</v>
       </c>
       <c r="E47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G47" s="3">
         <v>500</v>
       </c>
       <c r="H47" s="3">
+        <v>500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>500</v>
+      </c>
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3006,11 +3215,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3027,8 +3236,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,11 +3256,11 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3071,11 +3286,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3092,8 +3307,14 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3157,8 +3378,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3449,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,8 +3520,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,20 +3540,20 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3325,11 +3564,11 @@
       <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>200</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3337,11 +3576,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3352,8 +3591,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,56 +3662,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F54" s="3">
         <v>15200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3733,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3764,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,55 +3791,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3597,8 +3858,14 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3662,35 +3929,41 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3701,22 +3974,22 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3727,55 +4000,61 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
+      <c r="R60" s="3">
+        <v>0</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
@@ -3792,8 +4071,14 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,8 +4142,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3869,17 +4160,17 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3892,11 +4183,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3922,8 +4213,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4284,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4355,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,55 +4426,61 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>600</v>
       </c>
       <c r="J66" s="3">
+        <v>600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
+      <c r="R66" s="3">
+        <v>0</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
@@ -4182,8 +4497,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4528,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4595,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4666,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4737,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,56 +4808,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4879,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4950,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +5021,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,56 +5092,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F76" s="3">
         <v>13300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>19900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +5163,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,67 +5234,73 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,62 +5310,68 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5381,14 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,13 +5412,15 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5067,11 +5464,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5479,14 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5550,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5621,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5692,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5763,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,62 +5834,68 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2700</v>
+        <v>-2100</v>
       </c>
       <c r="E89" s="3">
-        <v>-2800</v>
+        <v>-3900</v>
       </c>
       <c r="F89" s="3">
         <v>-2700</v>
       </c>
       <c r="G89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1500</v>
       </c>
       <c r="L89" s="3">
         <v>-1600</v>
       </c>
       <c r="M89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5905,14 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,8 +5936,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5562,8 +6003,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +6074,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,44 +6145,50 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5742,11 +6201,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5757,8 +6216,14 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6247,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6314,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6385,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6456,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,62 +6527,68 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>18400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>5900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6107,8 +6598,14 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6127,11 +6624,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -6145,11 +6642,11 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6172,62 +6669,68 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6738,12 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,92 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -762,8 +763,11 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,8 +837,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -904,8 +911,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,8 +985,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1011,55 +1025,55 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
+      <c r="U12" s="3">
+        <v>200</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,8 +1161,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,8 +1235,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,65 +1336,66 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1408,11 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1390,56 +1420,56 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
       </c>
       <c r="R18" s="3">
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1452,8 +1482,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,8 +1512,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,17 +1522,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1535,8 +1569,8 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1550,65 +1584,68 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-3300</v>
       </c>
       <c r="G21" s="3">
         <v>-3300</v>
       </c>
       <c r="H21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1658,11 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1662,17 +1702,17 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1692,65 +1732,68 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3300</v>
       </c>
       <c r="G23" s="3">
         <v>-3300</v>
       </c>
       <c r="H23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-600</v>
       </c>
       <c r="R23" s="3">
         <v>-600</v>
       </c>
       <c r="S23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1806,11 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1834,8 +1880,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,65 +1954,68 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3300</v>
       </c>
       <c r="G26" s="3">
         <v>-3300</v>
       </c>
       <c r="H26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-600</v>
       </c>
       <c r="R26" s="3">
         <v>-600</v>
       </c>
       <c r="S26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,65 +2028,68 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3300</v>
       </c>
       <c r="G27" s="3">
         <v>-3300</v>
       </c>
       <c r="H27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-600</v>
       </c>
       <c r="R27" s="3">
         <v>-600</v>
       </c>
       <c r="S27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2047,8 +2102,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2189,8 +2250,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,8 +2398,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2340,17 +2410,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2387,8 +2457,8 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2402,65 +2472,68 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3300</v>
       </c>
       <c r="G33" s="3">
         <v>-3300</v>
       </c>
       <c r="H33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-600</v>
       </c>
       <c r="R33" s="3">
         <v>-600</v>
       </c>
       <c r="S33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,8 +2546,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,65 +2620,68 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3300</v>
       </c>
       <c r="G35" s="3">
         <v>-3300</v>
       </c>
       <c r="H35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-600</v>
       </c>
       <c r="R35" s="3">
         <v>-600</v>
       </c>
       <c r="S35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,70 +2694,73 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2691,8 +2773,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,59 +2831,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,46 +2903,49 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>1900</v>
       </c>
       <c r="F42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G42" s="3">
         <v>2000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>800</v>
       </c>
       <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
+      <c r="O42" s="3">
+        <v>800</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
@@ -2872,8 +2962,8 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2887,8 +2977,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2901,8 +2994,8 @@
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2919,8 +3012,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2958,8 +3051,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3029,8 +3125,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3038,19 +3137,19 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3074,13 +3173,13 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -3100,59 +3199,62 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,8 +3273,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3291,7 @@
         <v>400</v>
       </c>
       <c r="G47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -3195,17 +3300,17 @@
         <v>500</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
       </c>
       <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3326,8 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3242,8 +3347,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,8 +3370,8 @@
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3292,8 +3400,8 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3313,8 +3421,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3384,8 +3495,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,8 +3643,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3546,17 +3666,17 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3570,8 +3690,8 @@
       <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>200</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3582,8 +3702,8 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3597,8 +3717,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,59 +3791,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E54" s="3">
         <v>8900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3739,8 +3865,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,8 +3923,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3802,49 +3933,49 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3864,8 +3995,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3935,8 +4069,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3944,29 +4081,29 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -3980,19 +4117,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4006,8 +4143,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4015,49 +4155,49 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
+      <c r="S60" s="3">
+        <v>0</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
@@ -4077,8 +4217,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4148,13 +4291,16 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4166,13 +4312,13 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -4189,8 +4335,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4219,8 +4365,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,28 +4587,31 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -4462,28 +4620,28 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
+      <c r="S66" s="3">
+        <v>0</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
@@ -4503,8 +4661,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,59 +4985,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4885,8 +5059,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,59 +5281,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5169,8 +5355,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,70 +5429,73 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5316,65 +5508,68 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3300</v>
       </c>
       <c r="G81" s="3">
         <v>-3300</v>
       </c>
       <c r="H81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-600</v>
       </c>
       <c r="R81" s="3">
         <v>-600</v>
       </c>
       <c r="S81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5387,8 +5582,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,16 +5612,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5470,8 +5669,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5485,8 +5684,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,65 +6054,68 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5911,8 +6128,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,8 +6158,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6009,8 +6230,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,47 +6378,50 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6207,8 +6437,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -6222,8 +6452,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6320,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,53 +6776,56 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>18400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6587,11 +6833,11 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6604,8 +6850,11 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6630,8 +6879,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -6648,8 +6897,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6675,65 +6924,68 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6744,6 +6996,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,8 +767,11 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,8 +844,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,8 +921,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,67 +1029,68 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
+      <c r="V12" s="3">
+        <v>200</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,68 +1363,69 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1438,11 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1420,59 +1450,59 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-600</v>
       </c>
       <c r="S18" s="3">
         <v>-600</v>
       </c>
       <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,8 +1546,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,20 +1556,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1572,8 +1606,8 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1621,11 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,57 +1635,57 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3300</v>
       </c>
       <c r="H21" s="3">
         <v>-3300</v>
       </c>
       <c r="I21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-600</v>
       </c>
       <c r="S21" s="3">
         <v>-600</v>
       </c>
       <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1705,17 +1745,17 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1735,68 +1775,71 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3300</v>
       </c>
       <c r="H23" s="3">
         <v>-3300</v>
       </c>
       <c r="I23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-600</v>
       </c>
       <c r="S23" s="3">
         <v>-600</v>
       </c>
       <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1852,11 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,68 +2006,71 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3300</v>
       </c>
       <c r="H26" s="3">
         <v>-3300</v>
       </c>
       <c r="I26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-600</v>
       </c>
       <c r="S26" s="3">
         <v>-600</v>
       </c>
       <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,68 +2083,71 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3300</v>
       </c>
       <c r="H27" s="3">
         <v>-3300</v>
       </c>
       <c r="I27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-600</v>
       </c>
       <c r="S27" s="3">
         <v>-600</v>
       </c>
       <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,8 +2468,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2410,20 +2480,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2530,8 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2475,68 +2545,71 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3300</v>
       </c>
       <c r="H33" s="3">
         <v>-3300</v>
       </c>
       <c r="I33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-600</v>
       </c>
       <c r="S33" s="3">
         <v>-600</v>
       </c>
       <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,68 +2699,71 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3300</v>
       </c>
       <c r="H35" s="3">
         <v>-3300</v>
       </c>
       <c r="I35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-600</v>
       </c>
       <c r="S35" s="3">
         <v>-600</v>
       </c>
       <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,73 +2776,76 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,62 +2918,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +2993,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2915,40 +3005,40 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>1900</v>
       </c>
       <c r="G42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H42" s="3">
         <v>2000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>500</v>
-      </c>
-      <c r="N42" s="3">
-        <v>800</v>
       </c>
       <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
+      <c r="P42" s="3">
+        <v>800</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3055,8 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2980,8 +3070,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2997,8 +3090,8 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3108,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3054,8 +3147,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3128,8 +3224,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3140,19 +3239,19 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3176,13 +3275,13 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -3202,62 +3301,65 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E46" s="3">
         <v>11900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3378,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3294,7 +3399,7 @@
         <v>400</v>
       </c>
       <c r="H47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I47" s="3">
         <v>500</v>
@@ -3303,17 +3408,17 @@
         <v>500</v>
       </c>
       <c r="K47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
       </c>
       <c r="M47" s="3">
+        <v>400</v>
+      </c>
+      <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3434,8 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3350,28 +3455,31 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3403,8 +3511,8 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3424,8 +3532,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,40 +3763,43 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -3693,8 +3813,8 @@
       <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>200</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3705,8 +3825,8 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,62 +3917,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>12300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,61 +4054,62 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3998,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4072,8 +4206,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4084,29 +4221,29 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -4120,19 +4257,19 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4146,61 +4283,64 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
+      <c r="T60" s="3">
+        <v>0</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4360,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4294,8 +4437,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4303,7 +4449,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -4315,13 +4461,13 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -4338,8 +4484,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,31 +4745,34 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
@@ -4623,28 +4781,28 @@
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
+      <c r="T66" s="3">
+        <v>0</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,62 +5159,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,62 +5467,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E76" s="3">
         <v>11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,73 +5621,76 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,68 +5703,71 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3300</v>
       </c>
       <c r="H81" s="3">
         <v>-3300</v>
       </c>
       <c r="I81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-600</v>
       </c>
       <c r="S81" s="3">
         <v>-600</v>
       </c>
       <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,8 +5811,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,8 +5823,8 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5672,8 +5871,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,68 +6271,71 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,8 +6379,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,50 +6608,53 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6440,8 +6670,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -6455,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,56 +7022,59 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>6000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>18400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>5900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6836,11 +7082,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6853,8 +7099,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6882,8 +7131,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -6900,8 +7149,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6927,68 +7176,71 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -1783,8 +1783,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
         <v>-2700</v>
@@ -2014,8 +2014,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2600</v>
       </c>
       <c r="E26" s="3">
         <v>-2700</v>
@@ -2091,8 +2091,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
         <v>-2700</v>
@@ -2553,8 +2553,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
         <v>-2700</v>
@@ -2707,8 +2707,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
         <v>-2700</v>
@@ -5711,8 +5711,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
         <v>-2700</v>
@@ -7184,8 +7184,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
         <v>4900</v>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,8 +771,14 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,8 +854,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,8 +937,14 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1020,14 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,73 +1055,75 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
       </c>
       <c r="N12" s="3">
         <v>700</v>
       </c>
       <c r="O12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P12" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>400</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>400</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
+      <c r="X12" s="3">
+        <v>200</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
@@ -1107,8 +1134,14 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1217,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,8 +1300,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1383,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,74 +1415,76 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="F17" s="3">
         <v>2700</v>
       </c>
       <c r="G17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1494,14 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1450,65 +1509,65 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-2300</v>
+        <v>-3400</v>
       </c>
       <c r="F18" s="3">
         <v>-2700</v>
       </c>
       <c r="G18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1577,14 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,8 +1612,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1556,16 +1623,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1574,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1609,11 +1676,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1624,8 +1691,14 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,60 +1711,60 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1774,14 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1748,20 +1827,20 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1778,74 +1857,80 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-2600</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="F23" s="3">
         <v>-2600</v>
       </c>
       <c r="G23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,8 +1940,14 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1932,8 +2023,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,74 +2106,80 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-2600</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="F26" s="3">
         <v>-2600</v>
       </c>
       <c r="G26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,74 +2189,80 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-2600</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="F27" s="3">
         <v>-2600</v>
       </c>
       <c r="G27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2272,14 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2355,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2438,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2521,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,8 +2604,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2480,16 +2619,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2498,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2533,11 +2672,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2548,74 +2687,80 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-2600</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="F33" s="3">
         <v>-2600</v>
       </c>
       <c r="G33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2770,14 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,74 +2853,80 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-2600</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="F35" s="3">
         <v>-2600</v>
       </c>
       <c r="G35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2779,79 +2936,85 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3024,14 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +3059,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,68 +3090,70 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,56 +3169,62 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>200</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,11 +3237,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3073,16 +3252,22 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3093,11 +3278,11 @@
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -3111,11 +3296,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3150,8 +3335,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3227,8 +3418,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3236,28 +3433,28 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3278,16 +3475,16 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3304,68 +3501,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F46" s="3">
         <v>9500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>20500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,16 +3584,22 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
@@ -3402,29 +3611,29 @@
         <v>400</v>
       </c>
       <c r="I47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>500</v>
       </c>
       <c r="L47" s="3">
+        <v>500</v>
+      </c>
+      <c r="M47" s="3">
+        <v>500</v>
+      </c>
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3437,11 +3646,11 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3458,8 +3667,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3514,11 +3729,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3535,8 +3750,14 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3612,8 +3833,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3916,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,8 +3999,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3816,11 +4055,11 @@
       <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3828,11 +4067,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3843,8 +4082,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,68 +4165,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4248,14 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4283,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,67 +4314,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
@@ -4132,8 +4393,14 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4209,47 +4476,53 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -4260,22 +4533,22 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4286,67 +4559,73 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
+      <c r="V60" s="3">
+        <v>0</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4642,14 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4440,8 +4725,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4452,10 +4743,10 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -4464,17 +4755,17 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4487,11 +4778,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4517,8 +4808,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4891,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4974,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,67 +5057,73 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
+      <c r="V66" s="3">
+        <v>0</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
@@ -4825,8 +5140,14 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5175,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5254,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5337,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5420,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,68 +5503,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-39000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-23700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5586,14 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5669,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5752,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,68 +5835,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>19900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5918,14 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +6001,85 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,74 +6089,80 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-2600</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="F81" s="3">
         <v>-2600</v>
       </c>
       <c r="G81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +6172,14 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,19 +6207,21 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5874,11 +6271,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5889,8 +6286,14 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6369,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6452,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6535,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6618,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,74 +6701,80 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2800</v>
       </c>
       <c r="J89" s="3">
         <v>-2700</v>
       </c>
       <c r="K89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1500</v>
       </c>
       <c r="P89" s="3">
         <v>-1600</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +6784,14 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,8 +6819,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6395,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6404,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6457,8 +6898,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6981,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,8 +7064,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6620,47 +7079,47 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6673,11 +7132,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
@@ -6688,8 +7147,14 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +7182,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7261,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7344,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7427,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,74 +7510,80 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>18400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7102,8 +7593,14 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7134,11 +7631,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -7152,11 +7649,11 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -7179,74 +7676,80 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7254,6 +7757,12 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,107 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
@@ -777,8 +778,11 @@
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,8 +864,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -943,8 +950,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1036,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,76 +1070,77 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1500</v>
       </c>
       <c r="F12" s="3">
         <v>1500</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
-      </c>
-      <c r="W12" s="3">
-        <v>200</v>
       </c>
       <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
+      <c r="Y12" s="3">
+        <v>200</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
@@ -1140,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1240,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1326,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,77 +1443,78 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1527,11 @@
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1509,68 +1539,68 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-600</v>
       </c>
       <c r="V18" s="3">
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1613,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,8 +1647,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,29 +1657,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1682,8 +1716,8 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
@@ -1697,8 +1731,11 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1717,57 +1754,57 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-3300</v>
       </c>
       <c r="K21" s="3">
         <v>-3300</v>
       </c>
       <c r="L21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-600</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
       </c>
       <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,8 +1817,11 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,17 +1873,17 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1863,77 +1903,80 @@
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3300</v>
       </c>
       <c r="K23" s="3">
         <v>-3300</v>
       </c>
       <c r="L23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-600</v>
       </c>
       <c r="V23" s="3">
         <v>-600</v>
       </c>
       <c r="W23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +1989,11 @@
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2029,8 +2075,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,77 +2161,80 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3300</v>
       </c>
       <c r="K26" s="3">
         <v>-3300</v>
       </c>
       <c r="L26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-600</v>
       </c>
       <c r="V26" s="3">
         <v>-600</v>
       </c>
       <c r="W26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,77 +2247,80 @@
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3300</v>
       </c>
       <c r="K27" s="3">
         <v>-3300</v>
       </c>
       <c r="L27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-600</v>
       </c>
       <c r="V27" s="3">
         <v>-600</v>
       </c>
       <c r="W27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2333,11 @@
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,8 +2677,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2619,29 +2689,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2678,8 +2748,8 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
@@ -2693,77 +2763,80 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3300</v>
       </c>
       <c r="K33" s="3">
         <v>-3300</v>
       </c>
       <c r="L33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-600</v>
       </c>
       <c r="V33" s="3">
         <v>-600</v>
       </c>
       <c r="W33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2849,11 @@
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,77 +2935,80 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3300</v>
       </c>
       <c r="K35" s="3">
         <v>-3300</v>
       </c>
       <c r="L35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-600</v>
       </c>
       <c r="V35" s="3">
         <v>-600</v>
       </c>
       <c r="W35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,82 +3021,85 @@
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3112,11 @@
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,71 +3178,72 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3175,58 +3262,61 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
       </c>
       <c r="F42" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
       </c>
       <c r="H42" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="I42" s="3">
         <v>1900</v>
       </c>
       <c r="J42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>500</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>800</v>
       </c>
       <c r="R42" s="3">
         <v>800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
+      <c r="S42" s="3">
+        <v>800</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
@@ -3243,8 +3333,8 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3258,19 +3348,22 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3284,8 +3377,8 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -3302,8 +3395,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3341,8 +3434,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3424,19 +3520,22 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -3445,19 +3544,19 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3481,13 +3580,13 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
@@ -3507,71 +3606,74 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E46" s="3">
         <v>13400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,8 +3692,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3602,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -3617,7 +3722,7 @@
         <v>400</v>
       </c>
       <c r="K47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L47" s="3">
         <v>500</v>
@@ -3626,17 +3731,17 @@
         <v>500</v>
       </c>
       <c r="N47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O47" s="3">
         <v>400</v>
       </c>
       <c r="P47" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3757,8 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3673,8 +3778,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3735,8 +3843,8 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
@@ -3756,8 +3864,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3839,8 +3950,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,8 +4122,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4041,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -4061,8 +4181,8 @@
       <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
+      <c r="U52" s="3">
+        <v>200</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4193,8 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4088,8 +4208,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,71 +4294,74 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E54" s="3">
         <v>13500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4254,8 +4380,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,70 +4446,71 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4530,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4482,19 +4616,22 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -4503,29 +4640,29 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -4539,19 +4676,19 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4565,70 +4702,73 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
+      <c r="W60" s="3">
+        <v>0</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
@@ -4648,8 +4788,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4731,8 +4874,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4749,7 +4895,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4761,13 +4907,13 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -4784,8 +4930,8 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4814,8 +4960,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,40 +5218,43 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
       </c>
       <c r="F66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
@@ -5105,28 +5263,28 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
+      <c r="W66" s="3">
+        <v>0</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
@@ -5146,8 +5304,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,71 +5680,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5592,8 +5766,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,71 +6024,74 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5924,8 +6110,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,82 +6196,85 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6095,77 +6287,80 @@
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3300</v>
       </c>
       <c r="K81" s="3">
         <v>-3300</v>
       </c>
       <c r="L81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-600</v>
       </c>
       <c r="V81" s="3">
         <v>-600</v>
       </c>
       <c r="W81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6178,8 +6373,11 @@
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,8 +6407,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6277,8 +6476,8 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
@@ -6292,8 +6491,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,77 +6921,80 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6790,8 +7007,11 @@
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,8 +7041,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6836,20 +7057,20 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6904,8 +7125,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,8 +7297,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7085,44 +7315,44 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7138,8 +7368,8 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
@@ -7153,8 +7383,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7267,8 +7501,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,65 +7759,68 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>8900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
         <v>18400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>5900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7582,11 +7828,11 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7599,8 +7845,11 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7637,8 +7886,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -7655,8 +7904,8 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -7682,77 +7931,80 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-1500</v>
       </c>
       <c r="E102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7763,6 +8015,9 @@
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
   <si>
     <t>HOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,111 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,8 +782,11 @@
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +871,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -953,8 +960,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1049,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,79 +1084,80 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1500</v>
       </c>
       <c r="G12" s="3">
         <v>1500</v>
       </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
+      <c r="Z12" s="3">
+        <v>200</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,8 +1260,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1329,8 +1349,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,80 +1470,81 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>600</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1557,11 @@
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1539,71 +1569,71 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-600</v>
       </c>
       <c r="W18" s="3">
         <v>-600</v>
       </c>
       <c r="X18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1646,11 @@
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,8 +1681,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1657,32 +1691,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1719,8 +1753,8 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
@@ -1734,8 +1768,11 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1757,57 +1794,57 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-3300</v>
       </c>
       <c r="L21" s="3">
         <v>-3300</v>
       </c>
       <c r="M21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-600</v>
       </c>
       <c r="W21" s="3">
         <v>-600</v>
       </c>
       <c r="X21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,8 +1857,11 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1876,17 +1916,17 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1906,80 +1946,83 @@
       <c r="AD22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-3300</v>
       </c>
       <c r="L23" s="3">
         <v>-3300</v>
       </c>
       <c r="M23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-600</v>
       </c>
       <c r="W23" s="3">
         <v>-600</v>
       </c>
       <c r="X23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2035,11 @@
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2078,8 +2124,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,80 +2213,83 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3300</v>
       </c>
       <c r="L26" s="3">
         <v>-3300</v>
       </c>
       <c r="M26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-600</v>
       </c>
       <c r="W26" s="3">
         <v>-600</v>
       </c>
       <c r="X26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,80 +2302,83 @@
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3300</v>
       </c>
       <c r="L27" s="3">
         <v>-3300</v>
       </c>
       <c r="M27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-600</v>
       </c>
       <c r="W27" s="3">
         <v>-600</v>
       </c>
       <c r="X27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2391,11 @@
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2569,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,8 +2747,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2689,32 +2759,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2751,8 +2821,8 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
@@ -2766,80 +2836,83 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3300</v>
       </c>
       <c r="L33" s="3">
         <v>-3300</v>
       </c>
       <c r="M33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-600</v>
       </c>
       <c r="W33" s="3">
         <v>-600</v>
       </c>
       <c r="X33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2852,8 +2925,11 @@
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,80 +3014,83 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3300</v>
       </c>
       <c r="L35" s="3">
         <v>-3300</v>
       </c>
       <c r="M35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-600</v>
       </c>
       <c r="W35" s="3">
         <v>-600</v>
       </c>
       <c r="X35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3024,85 +3103,88 @@
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3115,8 +3197,11 @@
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,74 +3265,75 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3265,8 +3352,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3274,52 +3364,52 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>200</v>
       </c>
       <c r="G42" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H42" s="3">
         <v>300</v>
       </c>
       <c r="I42" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="J42" s="3">
         <v>1900</v>
       </c>
       <c r="K42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L42" s="3">
         <v>2000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
-      </c>
-      <c r="R42" s="3">
-        <v>800</v>
       </c>
       <c r="S42" s="3">
         <v>800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
+      <c r="T42" s="3">
+        <v>800</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
@@ -3336,8 +3426,8 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3351,8 +3441,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3362,11 +3455,11 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3380,8 +3473,8 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -3398,8 +3491,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3437,8 +3530,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3523,22 +3619,25 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -3547,19 +3646,19 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3583,13 +3682,13 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
@@ -3609,74 +3708,77 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E46" s="3">
         <v>11900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3695,8 +3797,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3710,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -3725,7 +3830,7 @@
         <v>400</v>
       </c>
       <c r="L47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M47" s="3">
         <v>500</v>
@@ -3734,17 +3839,17 @@
         <v>500</v>
       </c>
       <c r="O47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P47" s="3">
         <v>400</v>
       </c>
       <c r="Q47" s="3">
+        <v>400</v>
+      </c>
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3760,8 +3865,8 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3781,8 +3886,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3846,8 +3954,8 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -3867,8 +3975,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3953,8 +4064,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,8 +4242,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4164,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>200</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -4184,8 +4304,8 @@
       <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
+      <c r="V52" s="3">
+        <v>200</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
@@ -4196,8 +4316,8 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4211,8 +4331,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,74 +4420,77 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E54" s="3">
         <v>11900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4383,8 +4509,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,73 +4577,74 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
@@ -4533,8 +4664,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4619,22 +4753,25 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -4643,29 +4780,29 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
@@ -4679,19 +4816,19 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4705,73 +4842,76 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
+      <c r="X60" s="3">
+        <v>0</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
@@ -4791,8 +4931,11 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4877,13 +5020,16 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -4898,7 +5044,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -4910,13 +5056,13 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>300</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -4933,8 +5079,8 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4963,8 +5109,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,43 +5376,46 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1600</v>
       </c>
       <c r="F66" s="3">
         <v>1600</v>
       </c>
       <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1100</v>
       </c>
       <c r="K66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -5266,28 +5424,28 @@
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
       <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
+      <c r="X66" s="3">
+        <v>0</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
@@ -5307,8 +5465,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,74 +5854,77 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5769,8 +5943,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,74 +6210,77 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E76" s="3">
         <v>10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6113,8 +6299,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,85 +6388,88 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6290,80 +6482,83 @@
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3300</v>
       </c>
       <c r="L81" s="3">
         <v>-3300</v>
       </c>
       <c r="M81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-600</v>
       </c>
       <c r="W81" s="3">
         <v>-600</v>
       </c>
       <c r="X81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6376,8 +6571,11 @@
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,8 +6606,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6479,8 +6678,8 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6494,8 +6693,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,80 +7138,83 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7010,8 +7227,11 @@
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,8 +7262,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7060,20 +7281,20 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7128,8 +7349,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,8 +7527,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7318,44 +7548,44 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7371,8 +7601,8 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
@@ -7386,8 +7616,11 @@
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7504,8 +7738,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,68 +8005,71 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>8900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>18400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>5900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7831,11 +8077,11 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7848,13 +8094,16 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7889,8 +8138,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -7907,8 +8156,8 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7934,80 +8183,83 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>800</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
@@ -8018,6 +8270,9 @@
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
